--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32879-d226146-Reviews-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Pico-Rivera.h555802.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,82 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r171904568-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>226146</t>
+  </si>
+  <si>
+    <t>171904568</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Front Desk was beyond rude and A ROACH!!</t>
+  </si>
+  <si>
+    <t>My bf and I were celebrating our anniversary and waited last minute to book a room. Everything seemed to be booked besides this room and for the price you wouldn't rethink your decision. Until you walk in..the front desk clerk gives you the evil eye staring you down!!! He's so busy staring customers down in the lobby the process took waaaayy longer than it should. The room has an old box tv and the carpet is disgusting. Once we turned the light on A ROACH scurried in the corner!! We stayed for 2 hrs until I couldn't take it anymore. We went to leave and walk through the lobby to get to our car and the front desk clerk is AGAIN STARING us down standing near the locked door.. Yelling "leave the other way"!!!! I will never stay here again or recommend anyone staying in this dump!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>My bf and I were celebrating our anniversary and waited last minute to book a room. Everything seemed to be booked besides this room and for the price you wouldn't rethink your decision. Until you walk in..the front desk clerk gives you the evil eye staring you down!!! He's so busy staring customers down in the lobby the process took waaaayy longer than it should. The room has an old box tv and the carpet is disgusting. Once we turned the light on A ROACH scurried in the corner!! We stayed for 2 hrs until I couldn't take it anymore. We went to leave and walk through the lobby to get to our car and the front desk clerk is AGAIN STARING us down standing near the locked door.. Yelling "leave the other way"!!!! I will never stay here again or recommend anyone staying in this dump!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r153905867-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>153905867</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>trucker heaven</t>
+  </si>
+  <si>
+    <t>great parking for trucks all the way round the place for truck an campers or AV's! They have a bar that serves food an good drinks an a place that serves good breakfast in the morning. They have a place to do laundry. They do allow pets an have smoking rooms. The court yard is lovely! they have a pound with fish with places to sit or walk though. The rooms are ok, not great but they are ok. The ppl help with what ever you need help with. All in all a really nice place :)  Also your right next to a shopping area.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r60955892-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>60955892</t>
+  </si>
+  <si>
+    <t>04/10/2010</t>
+  </si>
+  <si>
+    <t>The highlight for me was the court yard!</t>
+  </si>
+  <si>
+    <t>Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.
+The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.
+The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center...Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center is pretty much two blocks away with all the big chain stores and eateries / restaurants you’d typically find in a large outdoor shopping center.The free Wi-Fi has a good transfer rate; TV has AV jacks to hook up a DVD or gaming console on back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.
+The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.
+The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center...Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center is pretty much two blocks away with all the big chain stores and eateries / restaurants you’d typically find in a large outdoor shopping center.The free Wi-Fi has a good transfer rate; TV has AV jacks to hook up a DVD or gaming console on back.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +724,203 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Complexxdame</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>My bf and I were celebrating our anniversary and waited last minute to book a room. Everything seemed to be booked besides this room and for the price you wouldn't rethink your decision. Until you walk in..the front desk clerk gives you the evil eye staring you down!!! He's so busy staring customers down in the lobby the process took waaaayy longer than it should. The room has an old box tv and the carpet is disgusting. Once we turned the light on A ROACH scurried in the corner!! We stayed for 2 hrs until I couldn't take it anymore. We went to leave and walk through the lobby to get to our car and the front desk clerk is AGAIN STARING us down standing near the locked door.. Yelling "leave the other way"!!!! I will never stay here again or recommend anyone staying in this dump!!! More</t>
   </si>
   <si>
+    <t>Ella B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r153905867-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>fridaynights</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r60955892-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -728,34 +737,38 @@
       <c r="A2" t="n">
         <v>41592</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -784,50 +797,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41592</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -851,50 +868,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41592</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -918,7 +939,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_460.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,64 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
-  <si>
-    <t>STR#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>TA_ReviewURL</t>
-  </si>
-  <si>
-    <t>English_Reviews_num</t>
-  </si>
-  <si>
-    <t>Local_Rank</t>
-  </si>
-  <si>
-    <t>Total_Reviews_num</t>
-  </si>
-  <si>
-    <t>Orbitz_ReviewURL</t>
-  </si>
-  <si>
-    <t>Knights Inn Pico Rivera</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Pico Rivera</t>
-  </si>
-  <si>
-    <t>90660</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/Hotel_Review-g32879-d226146-Reviews-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Pico-Rivera.h555802.Hotel-Information</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>STR</t>
   </si>
@@ -150,21 +93,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Complexxdame</t>
-  </si>
-  <si>
-    <t>07/06/2018</t>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r400000306-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>226146</t>
+  </si>
+  <si>
+    <t>400000306</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Truck drivers</t>
+  </si>
+  <si>
+    <t>Easy safe parking for our truck and trailer! The room was very clean and the beds were comfy! Definitely will come back! Variety of restaurants in walking distance. Fish pond is awesome! Pet friendly as well. Very nice staff at front desk.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r311885135-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>311885135</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Nice For A Knights Inn!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spent Labor Day Weekend here and it was my first time. The location is great- and right in the middle of everything. The rooms were decent and the parking areas for large trucks like mine was a major plus! A good restaurant and bar onsite as well as an outdoor pool made my stay enjoyable. This will definitely be my first choice if I need to stay in this area again! </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r171904568-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
-    <t>32879</t>
-  </si>
-  <si>
-    <t>226146</t>
-  </si>
-  <si>
     <t>171904568</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>My bf and I were celebrating our anniversary and waited last minute to book a room. Everything seemed to be booked besides this room and for the price you wouldn't rethink your decision. Until you walk in..the front desk clerk gives you the evil eye staring you down!!! He's so busy staring customers down in the lobby the process took waaaayy longer than it should. The room has an old box tv and the carpet is disgusting. Once we turned the light on A ROACH scurried in the corner!! We stayed for 2 hrs until I couldn't take it anymore. We went to leave and walk through the lobby to get to our car and the front desk clerk is AGAIN STARING us down standing near the locked door.. Yelling "leave the other way"!!!! I will never stay here again or recommend anyone staying in this dump!!! More</t>
   </si>
   <si>
-    <t>Ella B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r153905867-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
   </si>
   <si>
@@ -202,9 +181,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>fridaynights</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r60955892-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
@@ -227,12 +203,99 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.
 The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.
 The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center...Knights Inn, Pico Rivera.  This property is formerly known as Days Inn, Pico Rivera.   Upon check in, I requested to take a look at the standard king room and the Jacuzzi tub in the room.  The gentleman at the desk honored my request without hesitation.  Upon comparison of both rooms one thing was clear.  The furnishings have not been updated in some time.  I felt like I had just walked onto the set of the Brady Bunch, Good Times or All in The Family.The highlight for me was the court yard!  The court yard is set in the center of the property which is appropriate because it’s the shining star!  A fenced in sparkling pool area (safe for the kids) and hot tub.  Abeam the pool area are a series of sitting areas (benches, chase lounges) situated in such a way that even though you are in a common area you aren’t face to face with another hotel guest.  It sort of a spilt level seating area surrounded by water complete with a koi pond (healthy Koi too) and ultra relaxing fountain.  The rose garden, trees and various other plants are very well maintained and the incredible breeze made for a relaxing experience.The bed was comfy with ample pillows and clean sheets.  The room was clean but showing signs of its age.  The room has a mini-fridge but the only microwave is in the lobby.  A shopping center is pretty much two blocks away with all the big chain stores and eateries / restaurants you’d typically find in a large outdoor shopping center.The free Wi-Fi has a good transfer rate; TV has AV jacks to hook up a DVD or gaming console on back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r4706760-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>4706760</t>
+  </si>
+  <si>
+    <t>03/19/2006</t>
+  </si>
+  <si>
+    <t>what a front desk crew</t>
+  </si>
+  <si>
+    <t>This is probably the rudest and most unprofessional front desk crew I have ever encountered in my numerous travels. If you're looking for frilendly, inviting service, then look elsewhere. The people who check you in and check you out are rude, insensitive, and could really care less about your comfort. Call the front desk at [-] and see how they treat you on the phone. Then ask yourself, would I really want to stay at hotel where the front desk people are this rude and uncaring? Beware this hotel.</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32879-d226146-r1090437-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>1090437</t>
+  </si>
+  <si>
+    <t>06/15/2003</t>
+  </si>
+  <si>
+    <t>Trucker haven.</t>
+  </si>
+  <si>
+    <t>Judging by the rigs surrounding the motel at night, a definite trucker stop. All parking surrounds exterior of motel while rooms all face inward to pool. No view of your car. Noticed things missing like remote, microwave, complimentary continental breakfast, and complimentary weekday paper. Furniture showed signs of wear and tear. Otherwise, it was decent. Housekeeping had prepared for the correct amount of people for the reservation. The room was nonsmoking but it smelled so sweet that it almost was as obnoxious as a smoking room. Also, activity on premises involving police on night of stay. Would recommned a stay for a trucker.</t>
+  </si>
+  <si>
+    <t>STR#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>TA_ReviewURL</t>
+  </si>
+  <si>
+    <t>English_Reviews_num</t>
+  </si>
+  <si>
+    <t>Local_Rank</t>
+  </si>
+  <si>
+    <t>Total_Reviews_num</t>
+  </si>
+  <si>
+    <t>Orbitz_ReviewURL</t>
+  </si>
+  <si>
+    <t>Knights Inn Pico Rivera</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Pico Rivera</t>
+  </si>
+  <si>
+    <t>90660</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/Hotel_Review-g32879-d226146-Reviews-Knights_Inn_Pico_Rivera-Pico_Rivera_California.html</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Pico-Rivera.h555802.Hotel-Information</t>
   </si>
 </sst>
 </file>
@@ -606,37 +669,479 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>41592</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41592</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -658,288 +1163,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>41592</v>
       </c>
-      <c r="B2" t="n">
-        <v>-1</v>
+      <c r="B2" t="s">
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>41592</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>41592</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
